--- a/ДВС/Kursovoy_DVS.xlsx
+++ b/ДВС/Kursovoy_DVS.xlsx
@@ -904,20 +904,12 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1044,23 +1036,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,7 +1074,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1091,20 +1082,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="E2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,7 +1411,8 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="49.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
@@ -1433,13 +1425,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -1448,9 +1441,13 @@
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>650</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="10"/>
       <c r="J2" s="7"/>
       <c r="K2" s="2"/>
     </row>
@@ -1462,8 +1459,11 @@
         <v>70</v>
       </c>
       <c r="C3" s="2">
-        <v>2100</v>
-      </c>
+        <v>2200</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="10"/>
       <c r="J3" s="7"/>
       <c r="K3" s="2"/>
     </row>
@@ -1502,12 +1502,12 @@
         <v>73</v>
       </c>
       <c r="C6" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D6" s="27" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="29"/>
       <c r="F6" t="s">
         <v>149</v>
       </c>
@@ -1540,10 +1540,10 @@
         <v>75</v>
       </c>
       <c r="C8" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -1632,13 +1632,13 @@
       <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1653,7 +1653,7 @@
       <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1662,10 +1662,10 @@
       <c r="C14" s="2">
         <v>0.7</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="29"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -1712,8 +1712,8 @@
       <c r="C16" s="2">
         <v>1.4</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15*E12*((C6/C12)^((C16-1)/C16)-1)</f>
-        <v>46.495411015671721</v>
+        <v>54.960185670618145</v>
       </c>
       <c r="D17" s="2"/>
       <c r="J17" s="18"/>
@@ -1753,7 +1753,7 @@
       <c r="U17" s="15"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1761,10 +1761,10 @@
       </c>
       <c r="C18" s="2">
         <f>C17/(C15*C14)</f>
-        <v>66.157386191906269</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+        <v>78.20174398209754</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C19" s="2">
         <f>E12+C18</f>
-        <v>341.15738619190626</v>
+        <v>353.20174398209753</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
@@ -1810,12 +1810,12 @@
         <v>83</v>
       </c>
       <c r="C20" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="27" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="29"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -1838,10 +1838,13 @@
       </c>
       <c r="C21" s="2">
         <f>C20*SQRT(C19/288)*((1.15*C5)-(C12/C6))/((1.15*C5)-1)</f>
-        <v>0.98621722237743725</v>
+        <v>0.95144928962014752</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="I21" s="22"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1863,12 +1866,15 @@
         <v>85</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="28" t="s">
+        <v>-2</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -1891,7 +1897,7 @@
       </c>
       <c r="C23" s="2">
         <f>(C19+C22)/C19</f>
-        <v>1.0058623968905511</v>
+        <v>0.9943375138031556</v>
       </c>
       <c r="D23" s="2"/>
       <c r="J23" s="18"/>
@@ -1941,7 +1947,7 @@
       </c>
       <c r="C25" s="2">
         <f>(C6/C5)*(C21*(C5-1)*C23+((1.12*C12)/C6))</f>
-        <v>0.1285743885267342</v>
+        <v>0.13364146160813242</v>
       </c>
       <c r="D25" s="2"/>
       <c r="J25" s="18"/>
@@ -1965,12 +1971,12 @@
         <v>89</v>
       </c>
       <c r="C26" s="2">
-        <v>1150</v>
-      </c>
-      <c r="D26" s="27" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="29"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="C27" s="2">
         <f>(C24*C19)/(C6*C26*C21*(C5-1))</f>
-        <v>3.6185734603140639E-2</v>
+        <v>3.4274614420192445E-2</v>
       </c>
       <c r="D27" s="2"/>
       <c r="J27" s="18"/>
@@ -2018,7 +2024,7 @@
       </c>
       <c r="C28" s="2">
         <f>(C19+C22+C27*C26)/(1+C27)</f>
-        <v>371.3339878519804</v>
+        <v>378.99850743399782</v>
       </c>
       <c r="D28" s="2"/>
       <c r="J28" s="18"/>
@@ -2031,13 +2037,13 @@
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -2057,10 +2063,10 @@
       <c r="C30" s="2">
         <v>1.35</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="29"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2079,12 +2085,12 @@
       </c>
       <c r="C31" s="2">
         <f>C25*C5^C30</f>
-        <v>1.5757867067027729</v>
-      </c>
-      <c r="D31" s="27" t="s">
+        <v>1.6378879268217279</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="29"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2103,12 +2109,12 @@
       </c>
       <c r="C32" s="2">
         <f>C28*C5^(C30-1)</f>
-        <v>711.09511061665967</v>
-      </c>
-      <c r="D32" s="27" t="s">
+        <v>725.77247002436025</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="29"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -2119,13 +2125,13 @@
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2144,7 +2150,7 @@
       </c>
       <c r="C34" s="2">
         <f>(1.39*C8-0.39)*C11</f>
-        <v>35547.346189000004</v>
+        <v>32426.006251999996</v>
       </c>
       <c r="D34" s="2"/>
       <c r="J34" s="18"/>
@@ -2166,10 +2172,10 @@
       <c r="C35" s="2">
         <v>0.92</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="29"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -2209,7 +2215,7 @@
       </c>
       <c r="C37" s="2">
         <f>1+((E9/4)-(1/C10)+0.209*C36*(1-C8))/(C8*C36+(1/C10))</f>
-        <v>1.1007647243984331</v>
+        <v>1.1196745463316882</v>
       </c>
       <c r="D37" s="2"/>
       <c r="J37" s="18"/>
@@ -2230,7 +2236,7 @@
       </c>
       <c r="C38" s="2">
         <f>(C37+C27)/(1+C27)</f>
-        <v>1.0972458132103373</v>
+        <v>1.1157086760741748</v>
       </c>
       <c r="D38" s="2"/>
       <c r="J38" s="18"/>
@@ -2248,7 +2254,7 @@
       </c>
       <c r="C39" s="2">
         <f>C32-273</f>
-        <v>438.09511061665967</v>
+        <v>452.77247002436025</v>
       </c>
       <c r="D39" s="2"/>
       <c r="J39" s="18"/>
@@ -2266,7 +2272,7 @@
       </c>
       <c r="C40" s="2">
         <f>20.9+209*10^(-5)*C39</f>
-        <v>21.815618781188817</v>
+        <v>21.846294462350912</v>
       </c>
       <c r="D40" s="2"/>
       <c r="J40" s="18"/>
@@ -2284,7 +2290,7 @@
       </c>
       <c r="C41" s="2">
         <f>4.18*(4.53+C8)</f>
-        <v>22.488399999999999</v>
+        <v>22.279399999999999</v>
       </c>
       <c r="D41" s="2"/>
       <c r="J41" s="18"/>
@@ -2302,7 +2308,7 @@
       </c>
       <c r="C42" s="2">
         <f>((360+250*C8)/2)*10^(-5)</f>
-        <v>2.8625E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
@@ -2316,14 +2322,14 @@
     <row r="43" spans="1:17">
       <c r="B43" s="1">
         <f>(C35*C34)/((C8*C36+(1/C10))*(1+C27))</f>
-        <v>69211.842015434027</v>
+        <v>67112.364876639433</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2">
         <f>C38*(C41+C42*F43)*F43-C40*C39</f>
-        <v>68335.687026907341</v>
+        <v>68342.674306307788</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
@@ -2352,8 +2358,8 @@
         <f>F43+273</f>
         <v>2687.5961490421373</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -2372,7 +2378,7 @@
       </c>
       <c r="C45" s="2">
         <f>C38*C31*(C44/C32)</f>
-        <v>6.5348809843682139</v>
+        <v>6.7670363841142418</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2386,13 +2392,13 @@
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
@@ -2412,10 +2418,10 @@
       <c r="C47" s="2">
         <v>1.24</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="29"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -2434,7 +2440,7 @@
       </c>
       <c r="C48" s="2">
         <f>C45/C5^C47</f>
-        <v>0.65399513056269976</v>
+        <v>0.67722868314474693</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2470,13 +2476,13 @@
       <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
@@ -2496,10 +2502,10 @@
       <c r="C51" s="2">
         <v>0.97</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="27"/>
+      <c r="E51" s="29"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
@@ -2518,7 +2524,7 @@
       </c>
       <c r="C52" s="2">
         <f>C45/C31</f>
-        <v>4.1470593428485065</v>
+        <v>4.1315625283626529</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2540,7 +2546,7 @@
       </c>
       <c r="C53" s="2">
         <f>((C51*C31)/(C5-1))*((C52/(C47-1))*(1-(1/C5^(C47-1)))-(1/(C30-1))*(1-(1/C5^(C30-1))))</f>
-        <v>1.3719441846113773</v>
+        <v>1.4191824223654526</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2583,7 +2589,7 @@
       </c>
       <c r="C55" s="2">
         <f>((C54*C19*C53)/(C11*C6*C21))*(C8*C36+(1/C10))</f>
-        <v>0.29243464456046642</v>
+        <v>0.27943499544297745</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2605,7 +2611,7 @@
       </c>
       <c r="C56" s="2">
         <f>3600/(C11*C55)</f>
-        <v>0.27410528820372215</v>
+        <v>0.28685699298661044</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2619,13 +2625,13 @@
       <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -2688,7 +2694,7 @@
       </c>
       <c r="C60" s="2">
         <f>C17/((C11/C59)*(C55/C8)*C58)</f>
-        <v>6.7734712851508422E-2</v>
+        <v>7.8862126328925919E-2</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="C63" s="2">
         <f>C62*(0.65+0.35*(C12/0.1013)*SQRT(288/C19))</f>
-        <v>0.11909854094776293</v>
+        <v>0.11852589121559244</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2771,7 +2777,7 @@
       </c>
       <c r="C64" s="2">
         <f>(1-C60)*C53-C63</f>
-        <v>1.1599173982706659</v>
+        <v>1.1887367876734847</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2792,12 +2798,12 @@
       </c>
       <c r="C65" s="2">
         <f>C64/C53</f>
-        <v>0.84545523883628615</v>
-      </c>
-      <c r="D65" s="27" t="s">
+        <v>0.83762085052613056</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="27"/>
+      <c r="E65" s="29"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
@@ -2815,7 +2821,7 @@
       </c>
       <c r="C66" s="2">
         <f>C55*C65</f>
-        <v>0.24724040226087357</v>
+        <v>0.23406057854971218</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2836,7 +2842,7 @@
       </c>
       <c r="C67" s="2">
         <f>3600/(C11*C66)</f>
-        <v>0.32421029004564472</v>
+        <v>0.34246639491654057</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2849,13 +2855,13 @@
       <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
@@ -2873,7 +2879,7 @@
       </c>
       <c r="C69" s="2">
         <f>(120*C2*10^3)/(C64*10^6*C4*C3)</f>
-        <v>3.5579982963761855E-3</v>
+        <v>3.3139328909840967E-3</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>151</v>
@@ -2897,7 +2903,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.1222000000000001</v>
       </c>
       <c r="E70" s="2">
         <v>1.1200000000000001</v>
@@ -2919,11 +2925,11 @@
       </c>
       <c r="C71" s="2">
         <f>((4*C69)/(PI()*C70))^(1/3)</f>
-        <v>0.1593306314286449</v>
-      </c>
-      <c r="D71" s="30">
+        <v>0.15549909098520551</v>
+      </c>
+      <c r="D71" s="26">
         <f>C71*1000</f>
-        <v>159.33063142864489</v>
+        <v>155.4990909852055</v>
       </c>
       <c r="E71" s="10">
         <v>155.5</v>
@@ -2945,11 +2951,11 @@
       </c>
       <c r="C72" s="2">
         <f>C70*C71</f>
-        <v>0.17845030720008231</v>
-      </c>
-      <c r="D72" s="31">
+        <v>0.17450107990359764</v>
+      </c>
+      <c r="D72" s="27">
         <f>C72*1000</f>
-        <v>178.45030720008231</v>
+        <v>174.50107990359766</v>
       </c>
       <c r="E72" s="10">
         <v>174.5</v>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="H72">
         <f>D72/2</f>
-        <v>89.225153600041153</v>
+        <v>87.250539951798828</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
@@ -2978,7 +2984,7 @@
       </c>
       <c r="C73" s="2">
         <f>C4*C69</f>
-        <v>3.2021984667385671E-2</v>
+        <v>2.9825396018856871E-2</v>
       </c>
       <c r="D73" s="2"/>
       <c r="J73" s="11"/>
@@ -2996,7 +3002,7 @@
       <c r="B74" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="25">
         <f>(C64*10^6*C4*C69*C3)/120</f>
         <v>650000</v>
       </c>
@@ -3022,6 +3028,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
@@ -3038,11 +3049,6 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
